--- a/Data/ROY Data/rookies_97_98.xlsx
+++ b/Data/ROY Data/rookies_97_98.xlsx
@@ -921,76 +921,76 @@
         <v>23</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>236</v>
+        <v>59</v>
       </c>
       <c r="H2">
-        <v>4807</v>
+        <v>959</v>
       </c>
       <c r="I2">
-        <v>720</v>
+        <v>144</v>
       </c>
       <c r="J2">
-        <v>1726</v>
+        <v>357</v>
       </c>
       <c r="K2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="L2">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="M2">
-        <v>372</v>
+        <v>84</v>
       </c>
       <c r="N2">
-        <v>529</v>
+        <v>125</v>
       </c>
       <c r="O2">
-        <v>286</v>
+        <v>44</v>
       </c>
       <c r="P2">
-        <v>776</v>
+        <v>116</v>
       </c>
       <c r="Q2">
-        <v>266</v>
+        <v>51</v>
       </c>
       <c r="R2">
-        <v>184</v>
+        <v>35</v>
       </c>
       <c r="S2">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="T2">
-        <v>309</v>
+        <v>65</v>
       </c>
       <c r="U2">
-        <v>485</v>
+        <v>81</v>
       </c>
       <c r="V2">
-        <v>1830</v>
+        <v>376</v>
       </c>
       <c r="W2">
-        <v>0.417</v>
+        <v>0.403</v>
       </c>
       <c r="X2">
-        <v>0.237</v>
+        <v>0.211</v>
       </c>
       <c r="Y2">
-        <v>0.703</v>
+        <v>0.672</v>
       </c>
       <c r="Z2">
-        <v>20.4</v>
+        <v>16.3</v>
       </c>
       <c r="AA2">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="AB2">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="AC2">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AD2" t="s">
         <v>145</v>
@@ -1013,73 +1013,73 @@
         <v>23</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>615</v>
+        <v>66</v>
       </c>
       <c r="H3">
-        <v>17975</v>
+        <v>1839</v>
       </c>
       <c r="I3">
-        <v>2419</v>
+        <v>239</v>
       </c>
       <c r="J3">
-        <v>5922</v>
+        <v>586</v>
       </c>
       <c r="K3">
-        <v>645</v>
+        <v>17</v>
       </c>
       <c r="L3">
-        <v>1891</v>
+        <v>84</v>
       </c>
       <c r="M3">
-        <v>1874</v>
+        <v>275</v>
       </c>
       <c r="N3">
-        <v>2198</v>
+        <v>315</v>
       </c>
       <c r="O3">
-        <v>440</v>
+        <v>55</v>
       </c>
       <c r="P3">
-        <v>1988</v>
+        <v>187</v>
       </c>
       <c r="Q3">
-        <v>2083</v>
+        <v>227</v>
       </c>
       <c r="R3">
-        <v>691</v>
+        <v>86</v>
       </c>
       <c r="S3">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="T3">
-        <v>1052</v>
+        <v>128</v>
       </c>
       <c r="U3">
-        <v>1230</v>
+        <v>136</v>
       </c>
       <c r="V3">
-        <v>7357</v>
+        <v>770</v>
       </c>
       <c r="W3">
         <v>0.408</v>
       </c>
       <c r="X3">
-        <v>0.341</v>
+        <v>0.202</v>
       </c>
       <c r="Y3">
-        <v>0.853</v>
+        <v>0.873</v>
       </c>
       <c r="Z3">
-        <v>29.2</v>
+        <v>27.9</v>
       </c>
       <c r="AA3">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="AB3">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="AC3">
         <v>3.4</v>
@@ -1105,76 +1105,76 @@
         <v>23</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>41</v>
+      </c>
+      <c r="H4">
+        <v>680</v>
+      </c>
+      <c r="I4">
+        <v>92</v>
+      </c>
+      <c r="J4">
+        <v>231</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="G4">
-        <v>155</v>
-      </c>
-      <c r="H4">
-        <v>2157</v>
-      </c>
-      <c r="I4">
-        <v>303</v>
-      </c>
-      <c r="J4">
-        <v>734</v>
-      </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
       <c r="L4">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M4">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="N4">
-        <v>269</v>
+        <v>74</v>
       </c>
       <c r="O4">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="P4">
-        <v>534</v>
+        <v>157</v>
       </c>
       <c r="Q4">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="R4">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="S4">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="T4">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="U4">
-        <v>373</v>
+        <v>95</v>
       </c>
       <c r="V4">
-        <v>813</v>
+        <v>240</v>
       </c>
       <c r="W4">
-        <v>0.413</v>
+        <v>0.398</v>
       </c>
       <c r="X4">
-        <v>0.138</v>
+        <v>0.188</v>
       </c>
       <c r="Y4">
-        <v>0.755</v>
+        <v>0.716</v>
       </c>
       <c r="Z4">
-        <v>13.9</v>
+        <v>16.6</v>
       </c>
       <c r="AA4">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="AB4">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AC4">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD4" t="s">
         <v>145</v>
@@ -1197,76 +1197,76 @@
         <v>24</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="H5">
-        <v>598</v>
+        <v>256</v>
       </c>
       <c r="I5">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J5">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="L5">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="N5">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="O5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P5">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="Q5">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="R5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="U5">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="V5">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="W5">
-        <v>0.417</v>
+        <v>0.474</v>
       </c>
       <c r="X5">
-        <v>0.381</v>
+        <v>0.429</v>
       </c>
       <c r="Y5">
-        <v>0.774</v>
+        <v>0.846</v>
       </c>
       <c r="Z5">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA5">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AB5">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AC5">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD5" t="s">
         <v>145</v>
@@ -1289,76 +1289,76 @@
         <v>21</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>65</v>
+      </c>
+      <c r="H6">
+        <v>1506</v>
+      </c>
+      <c r="I6">
+        <v>234</v>
+      </c>
+      <c r="J6">
+        <v>525</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>14</v>
       </c>
-      <c r="G6">
-        <v>837</v>
-      </c>
-      <c r="H6">
-        <v>17649</v>
-      </c>
-      <c r="I6">
-        <v>2143</v>
-      </c>
-      <c r="J6">
-        <v>4387</v>
-      </c>
-      <c r="K6">
-        <v>12</v>
-      </c>
-      <c r="L6">
-        <v>74</v>
-      </c>
       <c r="M6">
-        <v>784</v>
+        <v>73</v>
       </c>
       <c r="N6">
-        <v>1137</v>
+        <v>104</v>
       </c>
       <c r="O6">
-        <v>1376</v>
+        <v>138</v>
       </c>
       <c r="P6">
-        <v>4287</v>
+        <v>351</v>
       </c>
       <c r="Q6">
-        <v>522</v>
+        <v>60</v>
       </c>
       <c r="R6">
-        <v>420</v>
+        <v>54</v>
       </c>
       <c r="S6">
-        <v>713</v>
+        <v>69</v>
       </c>
       <c r="T6">
-        <v>704</v>
+        <v>98</v>
       </c>
       <c r="U6">
-        <v>2203</v>
+        <v>199</v>
       </c>
       <c r="V6">
-        <v>5082</v>
+        <v>544</v>
       </c>
       <c r="W6">
-        <v>0.488</v>
+        <v>0.446</v>
       </c>
       <c r="X6">
-        <v>0.162</v>
+        <v>0.214</v>
       </c>
       <c r="Y6">
-        <v>0.6899999999999999</v>
+        <v>0.702</v>
       </c>
       <c r="Z6">
-        <v>21.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA6">
-        <v>6.1</v>
+        <v>8.4</v>
       </c>
       <c r="AB6">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AC6">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AD6" t="s">
         <v>145</v>
@@ -1381,76 +1381,76 @@
         <v>21</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1043</v>
+        <v>80</v>
       </c>
       <c r="H7">
-        <v>33008</v>
+        <v>2216</v>
       </c>
       <c r="I7">
-        <v>4738</v>
+        <v>280</v>
       </c>
       <c r="J7">
-        <v>11413</v>
+        <v>749</v>
       </c>
       <c r="K7">
-        <v>1830</v>
+        <v>107</v>
       </c>
       <c r="L7">
-        <v>4725</v>
+        <v>325</v>
       </c>
       <c r="M7">
-        <v>4496</v>
+        <v>226</v>
       </c>
       <c r="N7">
-        <v>5029</v>
+        <v>266</v>
       </c>
       <c r="O7">
-        <v>480</v>
+        <v>62</v>
       </c>
       <c r="P7">
-        <v>2992</v>
+        <v>190</v>
       </c>
       <c r="Q7">
-        <v>5636</v>
+        <v>314</v>
       </c>
       <c r="R7">
-        <v>1051</v>
+        <v>107</v>
       </c>
       <c r="S7">
-        <v>168</v>
+        <v>4</v>
       </c>
       <c r="T7">
-        <v>2138</v>
+        <v>174</v>
       </c>
       <c r="U7">
-        <v>2169</v>
+        <v>172</v>
       </c>
       <c r="V7">
-        <v>15802</v>
+        <v>893</v>
       </c>
       <c r="W7">
-        <v>0.415</v>
+        <v>0.374</v>
       </c>
       <c r="X7">
-        <v>0.387</v>
+        <v>0.329</v>
       </c>
       <c r="Y7">
-        <v>0.894</v>
+        <v>0.85</v>
       </c>
       <c r="Z7">
-        <v>31.6</v>
+        <v>27.7</v>
       </c>
       <c r="AA7">
-        <v>15.2</v>
+        <v>11.2</v>
       </c>
       <c r="AB7">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="AC7">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="AD7" t="s">
         <v>145</v>
@@ -1473,20 +1473,20 @@
         <v>24</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>4</v>
       </c>
-      <c r="G8">
-        <v>26</v>
-      </c>
-      <c r="H8">
-        <v>152</v>
-      </c>
-      <c r="I8">
-        <v>9</v>
-      </c>
-      <c r="J8">
-        <v>21</v>
-      </c>
       <c r="K8">
         <v>0</v>
       </c>
@@ -1494,49 +1494,46 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="P8">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>2</v>
       </c>
-      <c r="S8">
-        <v>10</v>
-      </c>
       <c r="T8">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="V8">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.429</v>
-      </c>
-      <c r="Y8">
-        <v>0.679</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>5.8</v>
+        <v>2.2</v>
       </c>
       <c r="AA8">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AC8">
         <v>0.2</v>
@@ -1562,76 +1559,76 @@
         <v>23</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="I9">
         <v>2</v>
       </c>
-      <c r="G9">
-        <v>45</v>
-      </c>
-      <c r="H9">
-        <v>449</v>
-      </c>
-      <c r="I9">
-        <v>51</v>
-      </c>
       <c r="J9">
-        <v>157</v>
+        <v>6</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="N9">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="O9">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="P9">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="Q9">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="V9">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="W9">
-        <v>0.325</v>
+        <v>0.333</v>
       </c>
       <c r="X9">
-        <v>0.091</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.5629999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>10</v>
+        <v>2.8</v>
       </c>
       <c r="AA9">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="AB9">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="AC9">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="AD9" t="s">
         <v>145</v>
@@ -1654,73 +1651,73 @@
         <v>25</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>337</v>
+        <v>38</v>
       </c>
       <c r="H10">
-        <v>4533</v>
+        <v>622</v>
       </c>
       <c r="I10">
-        <v>397</v>
+        <v>49</v>
       </c>
       <c r="J10">
-        <v>1050</v>
+        <v>141</v>
       </c>
       <c r="K10">
+        <v>22</v>
+      </c>
+      <c r="L10">
+        <v>61</v>
+      </c>
+      <c r="M10">
+        <v>42</v>
+      </c>
+      <c r="N10">
+        <v>62</v>
+      </c>
+      <c r="O10">
+        <v>14</v>
+      </c>
+      <c r="P10">
+        <v>56</v>
+      </c>
+      <c r="Q10">
         <v>100</v>
       </c>
-      <c r="L10">
-        <v>276</v>
-      </c>
-      <c r="M10">
-        <v>196</v>
-      </c>
-      <c r="N10">
-        <v>283</v>
-      </c>
-      <c r="O10">
-        <v>85</v>
-      </c>
-      <c r="P10">
-        <v>447</v>
-      </c>
-      <c r="Q10">
-        <v>876</v>
-      </c>
       <c r="R10">
-        <v>201</v>
+        <v>25</v>
       </c>
       <c r="S10">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="T10">
-        <v>356</v>
+        <v>52</v>
       </c>
       <c r="U10">
-        <v>362</v>
+        <v>55</v>
       </c>
       <c r="V10">
-        <v>1090</v>
+        <v>162</v>
       </c>
       <c r="W10">
-        <v>0.378</v>
+        <v>0.348</v>
       </c>
       <c r="X10">
-        <v>0.362</v>
+        <v>0.361</v>
       </c>
       <c r="Y10">
-        <v>0.6929999999999999</v>
+        <v>0.677</v>
       </c>
       <c r="Z10">
-        <v>13.5</v>
+        <v>16.4</v>
       </c>
       <c r="AA10">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="AB10">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AC10">
         <v>2.6</v>
@@ -1746,76 +1743,76 @@
         <v>23</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>541</v>
+        <v>74</v>
       </c>
       <c r="H11">
-        <v>10617</v>
+        <v>1007</v>
       </c>
       <c r="I11">
-        <v>1123</v>
+        <v>98</v>
       </c>
       <c r="J11">
-        <v>2216</v>
+        <v>229</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>713</v>
+        <v>86</v>
       </c>
       <c r="N11">
-        <v>1107</v>
+        <v>125</v>
       </c>
       <c r="O11">
-        <v>884</v>
+        <v>91</v>
       </c>
       <c r="P11">
-        <v>2874</v>
+        <v>252</v>
       </c>
       <c r="Q11">
-        <v>244</v>
+        <v>23</v>
       </c>
       <c r="R11">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="S11">
-        <v>685</v>
+        <v>94</v>
       </c>
       <c r="T11">
-        <v>448</v>
+        <v>44</v>
       </c>
       <c r="U11">
-        <v>1347</v>
+        <v>164</v>
       </c>
       <c r="V11">
-        <v>2960</v>
+        <v>282</v>
       </c>
       <c r="W11">
-        <v>0.507</v>
+        <v>0.428</v>
       </c>
       <c r="X11">
-        <v>0.077</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.644</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="Z11">
-        <v>19.6</v>
+        <v>13.6</v>
       </c>
       <c r="AA11">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="AB11">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="AC11">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD11" t="s">
         <v>145</v>
@@ -1838,70 +1835,67 @@
         <v>21</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="H12">
-        <v>1647</v>
+        <v>740</v>
       </c>
       <c r="I12">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="J12">
-        <v>427</v>
+        <v>207</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>46</v>
+      </c>
+      <c r="N12">
+        <v>77</v>
+      </c>
+      <c r="O12">
+        <v>63</v>
+      </c>
+      <c r="P12">
+        <v>168</v>
+      </c>
+      <c r="Q12">
+        <v>19</v>
+      </c>
+      <c r="R12">
+        <v>12</v>
+      </c>
+      <c r="S12">
+        <v>81</v>
+      </c>
+      <c r="T12">
+        <v>38</v>
+      </c>
+      <c r="U12">
+        <v>73</v>
+      </c>
+      <c r="V12">
+        <v>232</v>
+      </c>
+      <c r="W12">
+        <v>0.449</v>
+      </c>
+      <c r="Y12">
+        <v>0.597</v>
+      </c>
+      <c r="Z12">
+        <v>12.8</v>
+      </c>
+      <c r="AA12">
         <v>4</v>
-      </c>
-      <c r="M12">
-        <v>100</v>
-      </c>
-      <c r="N12">
-        <v>165</v>
-      </c>
-      <c r="O12">
-        <v>133</v>
-      </c>
-      <c r="P12">
-        <v>372</v>
-      </c>
-      <c r="Q12">
-        <v>44</v>
-      </c>
-      <c r="R12">
-        <v>28</v>
-      </c>
-      <c r="S12">
-        <v>163</v>
-      </c>
-      <c r="T12">
-        <v>78</v>
-      </c>
-      <c r="U12">
-        <v>167</v>
-      </c>
-      <c r="V12">
-        <v>502</v>
-      </c>
-      <c r="W12">
-        <v>0.471</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0.606</v>
-      </c>
-      <c r="Z12">
-        <v>12.7</v>
-      </c>
-      <c r="AA12">
-        <v>3.9</v>
       </c>
       <c r="AB12">
         <v>2.9</v>
@@ -2022,73 +2016,73 @@
         <v>22</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>33</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>21</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>8</v>
+      </c>
+      <c r="N14">
+        <v>9</v>
+      </c>
+      <c r="O14">
         <v>2</v>
       </c>
-      <c r="G14">
-        <v>19</v>
-      </c>
-      <c r="H14">
-        <v>92</v>
-      </c>
-      <c r="I14">
-        <v>14</v>
-      </c>
-      <c r="J14">
-        <v>39</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>7</v>
-      </c>
-      <c r="M14">
-        <v>21</v>
-      </c>
-      <c r="N14">
-        <v>27</v>
-      </c>
-      <c r="O14">
-        <v>4</v>
-      </c>
       <c r="P14">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <v>1</v>
       </c>
       <c r="T14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U14">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V14">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="W14">
-        <v>0.359</v>
+        <v>0.381</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>0.778</v>
+        <v>0.889</v>
       </c>
       <c r="Z14">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="AA14">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AB14">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2114,76 +2108,76 @@
         <v>22</v>
       </c>
       <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>256</v>
+      </c>
+      <c r="I15">
+        <v>46</v>
+      </c>
+      <c r="J15">
+        <v>110</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>57</v>
+      </c>
+      <c r="N15">
+        <v>68</v>
+      </c>
+      <c r="O15">
+        <v>20</v>
+      </c>
+      <c r="P15">
+        <v>41</v>
+      </c>
+      <c r="Q15">
+        <v>9</v>
+      </c>
+      <c r="R15">
+        <v>12</v>
+      </c>
+      <c r="S15">
         <v>7</v>
       </c>
-      <c r="G15">
-        <v>252</v>
-      </c>
-      <c r="H15">
-        <v>3985</v>
-      </c>
-      <c r="I15">
-        <v>609</v>
-      </c>
-      <c r="J15">
-        <v>1393</v>
-      </c>
-      <c r="K15">
-        <v>70</v>
-      </c>
-      <c r="L15">
-        <v>202</v>
-      </c>
-      <c r="M15">
-        <v>366</v>
-      </c>
-      <c r="N15">
-        <v>444</v>
-      </c>
-      <c r="O15">
-        <v>206</v>
-      </c>
-      <c r="P15">
-        <v>547</v>
-      </c>
-      <c r="Q15">
-        <v>154</v>
-      </c>
-      <c r="R15">
-        <v>101</v>
-      </c>
-      <c r="S15">
-        <v>80</v>
-      </c>
       <c r="T15">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c r="U15">
-        <v>492</v>
+        <v>27</v>
       </c>
       <c r="V15">
-        <v>1654</v>
+        <v>150</v>
       </c>
       <c r="W15">
-        <v>0.437</v>
+        <v>0.418</v>
       </c>
       <c r="X15">
-        <v>0.347</v>
+        <v>0.333</v>
       </c>
       <c r="Y15">
-        <v>0.824</v>
+        <v>0.838</v>
       </c>
       <c r="Z15">
-        <v>15.8</v>
+        <v>6.4</v>
       </c>
       <c r="AA15">
-        <v>6.6</v>
+        <v>3.8</v>
       </c>
       <c r="AB15">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AD15" t="s">
         <v>145</v>
@@ -2206,76 +2200,76 @@
         <v>22</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>659</v>
+        <v>26</v>
       </c>
       <c r="H16">
-        <v>11480</v>
+        <v>243</v>
       </c>
       <c r="I16">
-        <v>1491</v>
+        <v>32</v>
       </c>
       <c r="J16">
-        <v>3659</v>
+        <v>86</v>
       </c>
       <c r="K16">
-        <v>429</v>
+        <v>4</v>
       </c>
       <c r="L16">
-        <v>1262</v>
+        <v>13</v>
       </c>
       <c r="M16">
-        <v>1064</v>
+        <v>8</v>
       </c>
       <c r="N16">
-        <v>1236</v>
+        <v>14</v>
       </c>
       <c r="O16">
-        <v>700</v>
+        <v>10</v>
       </c>
       <c r="P16">
-        <v>2649</v>
+        <v>45</v>
       </c>
       <c r="Q16">
-        <v>627</v>
+        <v>8</v>
       </c>
       <c r="R16">
-        <v>245</v>
+        <v>9</v>
       </c>
       <c r="S16">
-        <v>216</v>
+        <v>5</v>
       </c>
       <c r="T16">
-        <v>656</v>
+        <v>13</v>
       </c>
       <c r="U16">
-        <v>1094</v>
+        <v>32</v>
       </c>
       <c r="V16">
-        <v>4475</v>
+        <v>76</v>
       </c>
       <c r="W16">
-        <v>0.407</v>
+        <v>0.372</v>
       </c>
       <c r="X16">
-        <v>0.34</v>
+        <v>0.308</v>
       </c>
       <c r="Y16">
-        <v>0.861</v>
+        <v>0.571</v>
       </c>
       <c r="Z16">
-        <v>17.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AA16">
-        <v>6.8</v>
+        <v>2.9</v>
       </c>
       <c r="AB16">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AD16" t="s">
         <v>145</v>
@@ -2298,70 +2292,67 @@
         <v>23</v>
       </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>39</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>10</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
         <v>2</v>
       </c>
-      <c r="G17">
-        <v>23</v>
-      </c>
-      <c r="H17">
-        <v>201</v>
-      </c>
-      <c r="I17">
-        <v>7</v>
-      </c>
-      <c r="J17">
-        <v>27</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>2</v>
-      </c>
-      <c r="O17">
-        <v>17</v>
-      </c>
-      <c r="P17">
-        <v>38</v>
-      </c>
-      <c r="Q17">
-        <v>2</v>
-      </c>
-      <c r="R17">
-        <v>3</v>
-      </c>
       <c r="S17">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="V17">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="W17">
-        <v>0.259</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
+        <v>0.444</v>
       </c>
       <c r="Z17">
-        <v>8.699999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="AA17">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="AB17">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AC17">
         <v>0.1</v>
@@ -2387,76 +2378,76 @@
         <v>22</v>
       </c>
       <c r="F18">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>872</v>
+        <v>74</v>
       </c>
       <c r="H18">
-        <v>19671</v>
+        <v>1956</v>
       </c>
       <c r="I18">
-        <v>2270</v>
+        <v>228</v>
       </c>
       <c r="J18">
-        <v>5109</v>
+        <v>548</v>
       </c>
       <c r="K18">
-        <v>359</v>
+        <v>11</v>
       </c>
       <c r="L18">
-        <v>1154</v>
+        <v>52</v>
       </c>
       <c r="M18">
-        <v>1724</v>
+        <v>112</v>
       </c>
       <c r="N18">
-        <v>2173</v>
+        <v>170</v>
       </c>
       <c r="O18">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="P18">
-        <v>1613</v>
+        <v>143</v>
       </c>
       <c r="Q18">
-        <v>2934</v>
+        <v>334</v>
       </c>
       <c r="R18">
-        <v>564</v>
+        <v>55</v>
       </c>
       <c r="S18">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="T18">
-        <v>928</v>
+        <v>164</v>
       </c>
       <c r="U18">
-        <v>917</v>
+        <v>88</v>
       </c>
       <c r="V18">
-        <v>6623</v>
+        <v>579</v>
       </c>
       <c r="W18">
-        <v>0.444</v>
+        <v>0.416</v>
       </c>
       <c r="X18">
-        <v>0.311</v>
+        <v>0.212</v>
       </c>
       <c r="Y18">
-        <v>0.793</v>
+        <v>0.659</v>
       </c>
       <c r="Z18">
-        <v>22.6</v>
+        <v>26.4</v>
       </c>
       <c r="AA18">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AB18">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AC18">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="AD18" t="s">
         <v>145</v>
@@ -2479,76 +2470,76 @@
         <v>21</v>
       </c>
       <c r="F19">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1392</v>
+        <v>82</v>
       </c>
       <c r="H19">
-        <v>47368</v>
+        <v>3204</v>
       </c>
       <c r="I19">
-        <v>10285</v>
+        <v>706</v>
       </c>
       <c r="J19">
-        <v>20334</v>
+        <v>1287</v>
       </c>
       <c r="K19">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>5896</v>
+        <v>319</v>
       </c>
       <c r="N19">
-        <v>8468</v>
+        <v>482</v>
       </c>
       <c r="O19">
-        <v>3859</v>
+        <v>274</v>
       </c>
       <c r="P19">
-        <v>15091</v>
+        <v>977</v>
       </c>
       <c r="Q19">
-        <v>4225</v>
+        <v>224</v>
       </c>
       <c r="R19">
-        <v>1025</v>
+        <v>55</v>
       </c>
       <c r="S19">
-        <v>3020</v>
+        <v>206</v>
       </c>
       <c r="T19">
-        <v>3381</v>
+        <v>279</v>
       </c>
       <c r="U19">
-        <v>3304</v>
+        <v>254</v>
       </c>
       <c r="V19">
-        <v>26496</v>
+        <v>1731</v>
       </c>
       <c r="W19">
-        <v>0.506</v>
+        <v>0.549</v>
       </c>
       <c r="X19">
-        <v>0.179</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>0.696</v>
+        <v>0.662</v>
       </c>
       <c r="Z19">
-        <v>34</v>
+        <v>39.1</v>
       </c>
       <c r="AA19">
-        <v>19</v>
+        <v>21.1</v>
       </c>
       <c r="AB19">
-        <v>10.8</v>
+        <v>11.9</v>
       </c>
       <c r="AC19">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AD19" t="s">
         <v>145</v>
@@ -2571,76 +2562,76 @@
         <v>28</v>
       </c>
       <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>27</v>
+      </c>
+      <c r="H20">
+        <v>169</v>
+      </c>
+      <c r="I20">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>53</v>
+      </c>
+      <c r="K20">
         <v>2</v>
       </c>
-      <c r="G20">
-        <v>101</v>
-      </c>
-      <c r="H20">
-        <v>1368</v>
-      </c>
-      <c r="I20">
-        <v>144</v>
-      </c>
-      <c r="J20">
-        <v>365</v>
-      </c>
-      <c r="K20">
+      <c r="L20">
+        <v>9</v>
+      </c>
+      <c r="M20">
+        <v>31</v>
+      </c>
+      <c r="N20">
+        <v>39</v>
+      </c>
+      <c r="O20">
+        <v>16</v>
+      </c>
+      <c r="P20">
+        <v>32</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+      <c r="R20">
         <v>10</v>
       </c>
-      <c r="L20">
-        <v>53</v>
-      </c>
-      <c r="M20">
-        <v>234</v>
-      </c>
-      <c r="N20">
-        <v>304</v>
-      </c>
-      <c r="O20">
-        <v>134</v>
-      </c>
-      <c r="P20">
-        <v>327</v>
-      </c>
-      <c r="Q20">
-        <v>79</v>
-      </c>
-      <c r="R20">
-        <v>76</v>
-      </c>
       <c r="S20">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="T20">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="U20">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="V20">
-        <v>532</v>
+        <v>67</v>
       </c>
       <c r="W20">
-        <v>0.395</v>
+        <v>0.321</v>
       </c>
       <c r="X20">
-        <v>0.189</v>
+        <v>0.222</v>
       </c>
       <c r="Y20">
-        <v>0.77</v>
+        <v>0.795</v>
       </c>
       <c r="Z20">
-        <v>13.5</v>
+        <v>6.3</v>
       </c>
       <c r="AA20">
-        <v>5.3</v>
+        <v>2.5</v>
       </c>
       <c r="AB20">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="AC20">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AD20" t="s">
         <v>145</v>
@@ -2663,76 +2654,76 @@
         <v>21</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>440</v>
+        <v>80</v>
       </c>
       <c r="H21">
-        <v>8832</v>
+        <v>1811</v>
       </c>
       <c r="I21">
-        <v>1196</v>
+        <v>276</v>
       </c>
       <c r="J21">
-        <v>2534</v>
+        <v>611</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>1221</v>
+        <v>263</v>
       </c>
       <c r="N21">
-        <v>1556</v>
+        <v>339</v>
       </c>
       <c r="O21">
-        <v>1195</v>
+        <v>182</v>
       </c>
       <c r="P21">
-        <v>3184</v>
+        <v>448</v>
       </c>
       <c r="Q21">
-        <v>301</v>
+        <v>76</v>
       </c>
       <c r="R21">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="S21">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="T21">
-        <v>655</v>
+        <v>157</v>
       </c>
       <c r="U21">
-        <v>1553</v>
+        <v>314</v>
       </c>
       <c r="V21">
-        <v>3615</v>
+        <v>816</v>
       </c>
       <c r="W21">
-        <v>0.472</v>
+        <v>0.452</v>
       </c>
       <c r="X21">
-        <v>0.167</v>
+        <v>0.333</v>
       </c>
       <c r="Y21">
-        <v>0.785</v>
+        <v>0.776</v>
       </c>
       <c r="Z21">
-        <v>20.1</v>
+        <v>22.6</v>
       </c>
       <c r="AA21">
-        <v>8.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="AB21">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="AC21">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AD21" t="s">
         <v>145</v>
@@ -2755,76 +2746,76 @@
         <v>22</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>733</v>
+        <v>55</v>
       </c>
       <c r="H22">
-        <v>13060</v>
+        <v>656</v>
       </c>
       <c r="I22">
-        <v>1318</v>
+        <v>69</v>
       </c>
       <c r="J22">
-        <v>2766</v>
+        <v>170</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>353</v>
+        <v>27</v>
       </c>
       <c r="N22">
-        <v>707</v>
+        <v>62</v>
       </c>
       <c r="O22">
-        <v>1301</v>
+        <v>73</v>
       </c>
       <c r="P22">
-        <v>3461</v>
+        <v>184</v>
       </c>
       <c r="Q22">
-        <v>344</v>
+        <v>14</v>
       </c>
       <c r="R22">
-        <v>264</v>
+        <v>13</v>
       </c>
       <c r="S22">
-        <v>1193</v>
+        <v>52</v>
       </c>
       <c r="T22">
-        <v>597</v>
+        <v>50</v>
       </c>
       <c r="U22">
-        <v>1575</v>
+        <v>94</v>
       </c>
       <c r="V22">
-        <v>2989</v>
+        <v>165</v>
       </c>
       <c r="W22">
-        <v>0.477</v>
+        <v>0.406</v>
       </c>
       <c r="X22">
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>0.499</v>
+        <v>0.435</v>
       </c>
       <c r="Z22">
-        <v>17.8</v>
+        <v>11.9</v>
       </c>
       <c r="AA22">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="AB22">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="AC22">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD22" t="s">
         <v>145</v>
@@ -2847,76 +2838,76 @@
         <v>27</v>
       </c>
       <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>52</v>
+      </c>
+      <c r="H23">
+        <v>1094</v>
+      </c>
+      <c r="I23">
+        <v>191</v>
+      </c>
+      <c r="J23">
+        <v>390</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
         <v>7</v>
       </c>
-      <c r="G23">
-        <v>318</v>
-      </c>
-      <c r="H23">
-        <v>4726</v>
-      </c>
-      <c r="I23">
-        <v>812</v>
-      </c>
-      <c r="J23">
-        <v>1606</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>17</v>
-      </c>
       <c r="M23">
-        <v>405</v>
+        <v>110</v>
       </c>
       <c r="N23">
-        <v>600</v>
+        <v>162</v>
       </c>
       <c r="O23">
-        <v>447</v>
+        <v>80</v>
       </c>
       <c r="P23">
-        <v>1142</v>
+        <v>234</v>
       </c>
       <c r="Q23">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="R23">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="S23">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="T23">
-        <v>225</v>
+        <v>62</v>
       </c>
       <c r="U23">
-        <v>360</v>
+        <v>56</v>
       </c>
       <c r="V23">
-        <v>2031</v>
+        <v>493</v>
       </c>
       <c r="W23">
-        <v>0.506</v>
+        <v>0.49</v>
       </c>
       <c r="X23">
-        <v>0.118</v>
+        <v>0.143</v>
       </c>
       <c r="Y23">
-        <v>0.675</v>
+        <v>0.679</v>
       </c>
       <c r="Z23">
-        <v>14.9</v>
+        <v>21</v>
       </c>
       <c r="AA23">
-        <v>6.4</v>
+        <v>9.5</v>
       </c>
       <c r="AB23">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="AC23">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AD23" t="s">
         <v>145</v>
@@ -2939,76 +2930,76 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>442</v>
+        <v>293</v>
       </c>
       <c r="I24">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J24">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="K24">
         <v>4</v>
       </c>
       <c r="L24">
+        <v>14</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>7</v>
+      </c>
+      <c r="O24">
+        <v>7</v>
+      </c>
+      <c r="P24">
+        <v>24</v>
+      </c>
+      <c r="Q24">
+        <v>45</v>
+      </c>
+      <c r="R24">
         <v>21</v>
       </c>
-      <c r="M24">
-        <v>8</v>
-      </c>
-      <c r="N24">
-        <v>13</v>
-      </c>
-      <c r="O24">
-        <v>9</v>
-      </c>
-      <c r="P24">
-        <v>36</v>
-      </c>
-      <c r="Q24">
-        <v>63</v>
-      </c>
-      <c r="R24">
-        <v>28</v>
-      </c>
       <c r="S24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T24">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="U24">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="V24">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="W24">
-        <v>0.28</v>
+        <v>0.329</v>
       </c>
       <c r="X24">
-        <v>0.19</v>
+        <v>0.286</v>
       </c>
       <c r="Y24">
-        <v>0.615</v>
+        <v>0.429</v>
       </c>
       <c r="Z24">
-        <v>9.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA24">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AC24">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AD24" t="s">
         <v>145</v>
@@ -3031,25 +3022,25 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H25">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="I25">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J25">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K25">
         <v>5</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M25">
         <v>19</v>
@@ -3061,10 +3052,10 @@
         <v>3</v>
       </c>
       <c r="P25">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q25">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R25">
         <v>7</v>
@@ -3073,19 +3064,19 @@
         <v>1</v>
       </c>
       <c r="T25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U25">
         <v>22</v>
       </c>
       <c r="V25">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="W25">
-        <v>0.32</v>
+        <v>0.338</v>
       </c>
       <c r="X25">
-        <v>0.333</v>
+        <v>0.357</v>
       </c>
       <c r="Y25">
         <v>0.76</v>
@@ -3094,10 +3085,10 @@
         <v>8</v>
       </c>
       <c r="AA25">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AB25">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AC25">
         <v>1</v>
@@ -3123,76 +3114,76 @@
         <v>22</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>809</v>
+        <v>472</v>
       </c>
       <c r="I26">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="J26">
-        <v>384</v>
+        <v>202</v>
       </c>
       <c r="K26">
+        <v>18</v>
+      </c>
+      <c r="L26">
+        <v>46</v>
+      </c>
+      <c r="M26">
+        <v>55</v>
+      </c>
+      <c r="N26">
+        <v>65</v>
+      </c>
+      <c r="O26">
+        <v>9</v>
+      </c>
+      <c r="P26">
+        <v>45</v>
+      </c>
+      <c r="Q26">
+        <v>34</v>
+      </c>
+      <c r="R26">
+        <v>15</v>
+      </c>
+      <c r="S26">
+        <v>11</v>
+      </c>
+      <c r="T26">
         <v>30</v>
       </c>
-      <c r="L26">
-        <v>88</v>
-      </c>
-      <c r="M26">
-        <v>83</v>
-      </c>
-      <c r="N26">
-        <v>102</v>
-      </c>
-      <c r="O26">
-        <v>16</v>
-      </c>
-      <c r="P26">
+      <c r="U26">
         <v>73</v>
       </c>
-      <c r="Q26">
-        <v>46</v>
-      </c>
-      <c r="R26">
-        <v>27</v>
-      </c>
-      <c r="S26">
-        <v>12</v>
-      </c>
-      <c r="T26">
-        <v>59</v>
-      </c>
-      <c r="U26">
-        <v>103</v>
-      </c>
       <c r="V26">
-        <v>373</v>
+        <v>227</v>
       </c>
       <c r="W26">
-        <v>0.339</v>
+        <v>0.381</v>
       </c>
       <c r="X26">
-        <v>0.341</v>
+        <v>0.391</v>
       </c>
       <c r="Y26">
-        <v>0.8139999999999999</v>
+        <v>0.846</v>
       </c>
       <c r="Z26">
-        <v>13.5</v>
+        <v>15.7</v>
       </c>
       <c r="AA26">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="AB26">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AC26">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AD26" t="s">
         <v>145</v>
@@ -3393,76 +3384,76 @@
         <v>22</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="H29">
-        <v>6182</v>
+        <v>2527</v>
       </c>
       <c r="I29">
-        <v>783</v>
+        <v>348</v>
       </c>
       <c r="J29">
-        <v>1797</v>
+        <v>725</v>
       </c>
       <c r="K29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>313</v>
+        <v>136</v>
       </c>
       <c r="N29">
-        <v>438</v>
+        <v>190</v>
       </c>
       <c r="O29">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="P29">
-        <v>755</v>
+        <v>325</v>
       </c>
       <c r="Q29">
-        <v>419</v>
+        <v>168</v>
       </c>
       <c r="R29">
-        <v>228</v>
+        <v>96</v>
       </c>
       <c r="S29">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="T29">
-        <v>401</v>
+        <v>165</v>
       </c>
       <c r="U29">
-        <v>578</v>
+        <v>238</v>
       </c>
       <c r="V29">
-        <v>1885</v>
+        <v>832</v>
       </c>
       <c r="W29">
-        <v>0.436</v>
+        <v>0.48</v>
       </c>
       <c r="X29">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>0.715</v>
+        <v>0.716</v>
       </c>
       <c r="Z29">
-        <v>23.8</v>
+        <v>30.8</v>
       </c>
       <c r="AA29">
-        <v>7.3</v>
+        <v>10.1</v>
       </c>
       <c r="AB29">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="AC29">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AD29" t="s">
         <v>145</v>
@@ -3485,76 +3476,76 @@
         <v>23</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>632</v>
+        <v>530</v>
       </c>
       <c r="I30">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J30">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="K30">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L30">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N30">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="O30">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P30">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="Q30">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R30">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="S30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T30">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="U30">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="V30">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="W30">
-        <v>0.391</v>
+        <v>0.407</v>
       </c>
       <c r="X30">
-        <v>0.362</v>
+        <v>0.377</v>
       </c>
       <c r="Y30">
-        <v>0.632</v>
+        <v>0.621</v>
       </c>
       <c r="Z30">
-        <v>11.7</v>
+        <v>13.9</v>
       </c>
       <c r="AA30">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="AB30">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="AC30">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AD30" t="s">
         <v>145</v>
@@ -3577,76 +3568,73 @@
         <v>21</v>
       </c>
       <c r="F31">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>517</v>
+        <v>8</v>
       </c>
       <c r="H31">
-        <v>11280</v>
+        <v>23</v>
       </c>
       <c r="I31">
-        <v>1714</v>
+        <v>6</v>
       </c>
       <c r="J31">
-        <v>4278</v>
+        <v>14</v>
       </c>
       <c r="K31">
-        <v>452</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>1333</v>
+        <v>3</v>
       </c>
       <c r="M31">
-        <v>757</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>882</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>193</v>
+        <v>1</v>
       </c>
       <c r="P31">
-        <v>877</v>
+        <v>2</v>
       </c>
       <c r="Q31">
-        <v>1748</v>
+        <v>4</v>
       </c>
       <c r="R31">
-        <v>273</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>818</v>
+        <v>1</v>
       </c>
       <c r="U31">
-        <v>690</v>
+        <v>1</v>
       </c>
       <c r="V31">
-        <v>4637</v>
+        <v>12</v>
       </c>
       <c r="W31">
-        <v>0.401</v>
+        <v>0.429</v>
       </c>
       <c r="X31">
-        <v>0.339</v>
-      </c>
-      <c r="Y31">
-        <v>0.858</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>21.8</v>
+        <v>2.9</v>
       </c>
       <c r="AA31">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="AB31">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="AC31">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD31" t="s">
         <v>145</v>
@@ -3669,76 +3657,76 @@
         <v>22</v>
       </c>
       <c r="F32">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>843</v>
+        <v>82</v>
       </c>
       <c r="H32">
-        <v>22965</v>
+        <v>2379</v>
       </c>
       <c r="I32">
-        <v>4207</v>
+        <v>454</v>
       </c>
       <c r="J32">
-        <v>8842</v>
+        <v>876</v>
       </c>
       <c r="K32">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>2531</v>
+        <v>230</v>
       </c>
       <c r="N32">
-        <v>3243</v>
+        <v>302</v>
       </c>
       <c r="O32">
-        <v>2444</v>
+        <v>279</v>
       </c>
       <c r="P32">
-        <v>6191</v>
+        <v>723</v>
       </c>
       <c r="Q32">
-        <v>955</v>
+        <v>71</v>
       </c>
       <c r="R32">
-        <v>421</v>
+        <v>52</v>
       </c>
       <c r="S32">
-        <v>1327</v>
+        <v>135</v>
       </c>
       <c r="T32">
-        <v>1509</v>
+        <v>146</v>
       </c>
       <c r="U32">
-        <v>2776</v>
+        <v>288</v>
       </c>
       <c r="V32">
-        <v>10976</v>
+        <v>1139</v>
       </c>
       <c r="W32">
-        <v>0.476</v>
+        <v>0.518</v>
       </c>
       <c r="X32">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="Y32">
-        <v>0.78</v>
+        <v>0.762</v>
       </c>
       <c r="Z32">
-        <v>27.2</v>
+        <v>29</v>
       </c>
       <c r="AA32">
-        <v>13</v>
+        <v>13.9</v>
       </c>
       <c r="AB32">
-        <v>7.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC32">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AD32" t="s">
         <v>145</v>
@@ -3761,76 +3749,76 @@
         <v>24</v>
       </c>
       <c r="F33">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>755</v>
+        <v>68</v>
       </c>
       <c r="H33">
-        <v>16790</v>
+        <v>2042</v>
       </c>
       <c r="I33">
-        <v>2755</v>
+        <v>310</v>
       </c>
       <c r="J33">
-        <v>6601</v>
+        <v>791</v>
       </c>
       <c r="K33">
-        <v>689</v>
+        <v>21</v>
       </c>
       <c r="L33">
-        <v>1947</v>
+        <v>81</v>
       </c>
       <c r="M33">
-        <v>1145</v>
+        <v>149</v>
       </c>
       <c r="N33">
-        <v>1444</v>
+        <v>183</v>
       </c>
       <c r="O33">
-        <v>623</v>
+        <v>78</v>
       </c>
       <c r="P33">
-        <v>2347</v>
+        <v>302</v>
       </c>
       <c r="Q33">
-        <v>1945</v>
+        <v>317</v>
       </c>
       <c r="R33">
-        <v>704</v>
+        <v>105</v>
       </c>
       <c r="S33">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="T33">
-        <v>1014</v>
+        <v>184</v>
       </c>
       <c r="U33">
-        <v>1372</v>
+        <v>160</v>
       </c>
       <c r="V33">
-        <v>7344</v>
+        <v>790</v>
       </c>
       <c r="W33">
-        <v>0.417</v>
+        <v>0.392</v>
       </c>
       <c r="X33">
-        <v>0.354</v>
+        <v>0.259</v>
       </c>
       <c r="Y33">
-        <v>0.793</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="Z33">
-        <v>22.2</v>
+        <v>30</v>
       </c>
       <c r="AA33">
-        <v>9.699999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="AB33">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="AC33">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="AD33" t="s">
         <v>145</v>
@@ -3853,76 +3841,76 @@
         <v>23</v>
       </c>
       <c r="F34">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>793</v>
+        <v>77</v>
       </c>
       <c r="H34">
-        <v>15552</v>
+        <v>2266</v>
       </c>
       <c r="I34">
-        <v>1709</v>
+        <v>226</v>
       </c>
       <c r="J34">
-        <v>4131</v>
+        <v>609</v>
       </c>
       <c r="K34">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="L34">
-        <v>933</v>
+        <v>128</v>
       </c>
       <c r="M34">
-        <v>682</v>
+        <v>80</v>
       </c>
       <c r="N34">
-        <v>916</v>
+        <v>110</v>
       </c>
       <c r="O34">
-        <v>293</v>
+        <v>51</v>
       </c>
       <c r="P34">
-        <v>1358</v>
+        <v>171</v>
       </c>
       <c r="Q34">
-        <v>2274</v>
+        <v>329</v>
       </c>
       <c r="R34">
-        <v>551</v>
+        <v>64</v>
       </c>
       <c r="S34">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="T34">
-        <v>866</v>
+        <v>120</v>
       </c>
       <c r="U34">
-        <v>1289</v>
+        <v>188</v>
       </c>
       <c r="V34">
-        <v>4432</v>
+        <v>574</v>
       </c>
       <c r="W34">
-        <v>0.414</v>
+        <v>0.371</v>
       </c>
       <c r="X34">
-        <v>0.356</v>
+        <v>0.328</v>
       </c>
       <c r="Y34">
-        <v>0.745</v>
+        <v>0.727</v>
       </c>
       <c r="Z34">
-        <v>19.6</v>
+        <v>29.4</v>
       </c>
       <c r="AA34">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB34">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="AC34">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="AD34" t="s">
         <v>145</v>
@@ -4034,76 +4022,76 @@
         <v>22</v>
       </c>
       <c r="F36">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>729</v>
+        <v>80</v>
       </c>
       <c r="H36">
-        <v>18176</v>
+        <v>2483</v>
       </c>
       <c r="I36">
-        <v>2019</v>
+        <v>261</v>
       </c>
       <c r="J36">
-        <v>4897</v>
+        <v>592</v>
       </c>
       <c r="K36">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="M36">
-        <v>1288</v>
+        <v>201</v>
       </c>
       <c r="N36">
-        <v>1632</v>
+        <v>251</v>
       </c>
       <c r="O36">
-        <v>282</v>
+        <v>67</v>
       </c>
       <c r="P36">
-        <v>1785</v>
+        <v>253</v>
       </c>
       <c r="Q36">
-        <v>4481</v>
+        <v>656</v>
       </c>
       <c r="R36">
-        <v>1229</v>
+        <v>196</v>
       </c>
       <c r="S36">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="T36">
-        <v>1367</v>
+        <v>194</v>
       </c>
       <c r="U36">
-        <v>1856</v>
+        <v>271</v>
       </c>
       <c r="V36">
-        <v>5342</v>
+        <v>723</v>
       </c>
       <c r="W36">
-        <v>0.412</v>
+        <v>0.441</v>
       </c>
       <c r="X36">
-        <v>0.134</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>0.789</v>
+        <v>0.801</v>
       </c>
       <c r="Z36">
-        <v>24.9</v>
+        <v>31</v>
       </c>
       <c r="AA36">
-        <v>7.3</v>
+        <v>9</v>
       </c>
       <c r="AB36">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="AC36">
-        <v>6.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD36" t="s">
         <v>145</v>
@@ -4126,76 +4114,76 @@
         <v>24</v>
       </c>
       <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>14</v>
+      </c>
+      <c r="H37">
+        <v>140</v>
+      </c>
+      <c r="I37">
+        <v>20</v>
+      </c>
+      <c r="J37">
+        <v>49</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <v>16</v>
+      </c>
+      <c r="M37">
         <v>5</v>
       </c>
-      <c r="G37">
-        <v>98</v>
-      </c>
-      <c r="H37">
-        <v>1565</v>
-      </c>
-      <c r="I37">
-        <v>187</v>
-      </c>
-      <c r="J37">
-        <v>497</v>
-      </c>
-      <c r="K37">
-        <v>54</v>
-      </c>
-      <c r="L37">
-        <v>170</v>
-      </c>
-      <c r="M37">
-        <v>58</v>
-      </c>
       <c r="N37">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="O37">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="P37">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="Q37">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="R37">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="S37">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="T37">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="U37">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="V37">
-        <v>486</v>
+        <v>49</v>
       </c>
       <c r="W37">
-        <v>0.376</v>
+        <v>0.408</v>
       </c>
       <c r="X37">
-        <v>0.318</v>
+        <v>0.25</v>
       </c>
       <c r="Y37">
-        <v>0.841</v>
+        <v>0.625</v>
       </c>
       <c r="Z37">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AA37">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AB37">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="AC37">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD37" t="s">
         <v>145</v>
@@ -4390,76 +4378,76 @@
         <v>18</v>
       </c>
       <c r="F40">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>938</v>
+        <v>64</v>
       </c>
       <c r="H40">
-        <v>30658</v>
+        <v>1179</v>
       </c>
       <c r="I40">
-        <v>6709</v>
+        <v>179</v>
       </c>
       <c r="J40">
-        <v>15413</v>
+        <v>398</v>
       </c>
       <c r="K40">
-        <v>1081</v>
+        <v>14</v>
       </c>
       <c r="L40">
-        <v>3198</v>
+        <v>41</v>
       </c>
       <c r="M40">
-        <v>3882</v>
+        <v>79</v>
       </c>
       <c r="N40">
-        <v>5202</v>
+        <v>111</v>
       </c>
       <c r="O40">
-        <v>1300</v>
+        <v>105</v>
       </c>
       <c r="P40">
-        <v>5276</v>
+        <v>269</v>
       </c>
       <c r="Q40">
-        <v>4161</v>
+        <v>98</v>
       </c>
       <c r="R40">
-        <v>1136</v>
+        <v>49</v>
       </c>
       <c r="S40">
-        <v>807</v>
+        <v>61</v>
       </c>
       <c r="T40">
-        <v>2029</v>
+        <v>66</v>
       </c>
       <c r="U40">
-        <v>1661</v>
+        <v>86</v>
       </c>
       <c r="V40">
-        <v>18381</v>
+        <v>451</v>
       </c>
       <c r="W40">
-        <v>0.435</v>
+        <v>0.45</v>
       </c>
       <c r="X40">
-        <v>0.338</v>
+        <v>0.341</v>
       </c>
       <c r="Y40">
-        <v>0.746</v>
+        <v>0.712</v>
       </c>
       <c r="Z40">
-        <v>32.7</v>
+        <v>18.4</v>
       </c>
       <c r="AA40">
-        <v>19.6</v>
+        <v>7</v>
       </c>
       <c r="AB40">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="AC40">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD40" t="s">
         <v>145</v>
@@ -4482,76 +4470,76 @@
         <v>21</v>
       </c>
       <c r="F41">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>432</v>
+        <v>80</v>
       </c>
       <c r="H41">
-        <v>13418</v>
+        <v>2662</v>
       </c>
       <c r="I41">
-        <v>2490</v>
+        <v>515</v>
       </c>
       <c r="J41">
-        <v>5803</v>
+        <v>1145</v>
       </c>
       <c r="K41">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="L41">
-        <v>240</v>
+        <v>28</v>
       </c>
       <c r="M41">
-        <v>852</v>
+        <v>188</v>
       </c>
       <c r="N41">
-        <v>1054</v>
+        <v>224</v>
       </c>
       <c r="O41">
-        <v>383</v>
+        <v>109</v>
       </c>
       <c r="P41">
-        <v>1342</v>
+        <v>280</v>
       </c>
       <c r="Q41">
-        <v>921</v>
+        <v>176</v>
       </c>
       <c r="R41">
-        <v>456</v>
+        <v>125</v>
       </c>
       <c r="S41">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="T41">
-        <v>683</v>
+        <v>132</v>
       </c>
       <c r="U41">
-        <v>881</v>
+        <v>213</v>
       </c>
       <c r="V41">
-        <v>5892</v>
+        <v>1221</v>
       </c>
       <c r="W41">
-        <v>0.429</v>
+        <v>0.45</v>
       </c>
       <c r="X41">
-        <v>0.25</v>
+        <v>0.107</v>
       </c>
       <c r="Y41">
-        <v>0.8080000000000001</v>
+        <v>0.839</v>
       </c>
       <c r="Z41">
-        <v>31.1</v>
+        <v>33.3</v>
       </c>
       <c r="AA41">
-        <v>13.6</v>
+        <v>15.3</v>
       </c>
       <c r="AB41">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AC41">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AD41" t="s">
         <v>145</v>
@@ -4574,25 +4562,25 @@
         <v>20</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H42">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="I42">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J42">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="K42">
         <v>3</v>
       </c>
       <c r="L42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M42">
         <v>11</v>
@@ -4601,34 +4589,34 @@
         <v>17</v>
       </c>
       <c r="O42">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P42">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R42">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="U42">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="V42">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="W42">
-        <v>0.5600000000000001</v>
+        <v>0.609</v>
       </c>
       <c r="X42">
-        <v>0.429</v>
+        <v>0.5</v>
       </c>
       <c r="Y42">
         <v>0.647</v>
@@ -4637,13 +4625,13 @@
         <v>4.9</v>
       </c>
       <c r="AA42">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AB42">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AC42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD42" t="s">
         <v>145</v>
@@ -4755,73 +4743,73 @@
         <v>22</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H44">
-        <v>399</v>
+        <v>234</v>
       </c>
       <c r="I44">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="J44">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N44">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="O44">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="P44">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="Q44">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="R44">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T44">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="U44">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="V44">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="W44">
-        <v>0.4</v>
+        <v>0.377</v>
       </c>
       <c r="X44">
         <v>0</v>
       </c>
       <c r="Y44">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="Z44">
-        <v>8.300000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AA44">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AB44">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AC44">
         <v>0.6</v>
@@ -4847,76 +4835,76 @@
         <v>25</v>
       </c>
       <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>35</v>
+      </c>
+      <c r="H45">
+        <v>430</v>
+      </c>
+      <c r="I45">
+        <v>37</v>
+      </c>
+      <c r="J45">
+        <v>98</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>49</v>
+      </c>
+      <c r="N45">
+        <v>70</v>
+      </c>
+      <c r="O45">
+        <v>9</v>
+      </c>
+      <c r="P45">
+        <v>39</v>
+      </c>
+      <c r="Q45">
+        <v>65</v>
+      </c>
+      <c r="R45">
         <v>13</v>
       </c>
-      <c r="G45">
-        <v>662</v>
-      </c>
-      <c r="H45">
-        <v>10297</v>
-      </c>
-      <c r="I45">
-        <v>845</v>
-      </c>
-      <c r="J45">
-        <v>2060</v>
-      </c>
-      <c r="K45">
-        <v>9</v>
-      </c>
-      <c r="L45">
-        <v>29</v>
-      </c>
-      <c r="M45">
-        <v>797</v>
-      </c>
-      <c r="N45">
-        <v>1006</v>
-      </c>
-      <c r="O45">
-        <v>146</v>
-      </c>
-      <c r="P45">
-        <v>1018</v>
-      </c>
-      <c r="Q45">
-        <v>1501</v>
-      </c>
-      <c r="R45">
-        <v>335</v>
-      </c>
       <c r="S45">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="T45">
-        <v>492</v>
+        <v>44</v>
       </c>
       <c r="U45">
-        <v>807</v>
+        <v>31</v>
       </c>
       <c r="V45">
-        <v>2496</v>
+        <v>123</v>
       </c>
       <c r="W45">
-        <v>0.41</v>
+        <v>0.378</v>
       </c>
       <c r="X45">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="Y45">
-        <v>0.792</v>
+        <v>0.7</v>
       </c>
       <c r="Z45">
-        <v>15.6</v>
+        <v>12.3</v>
       </c>
       <c r="AA45">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="AB45">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="AC45">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="AD45" t="s">
         <v>145</v>
@@ -4939,76 +4927,76 @@
         <v>22</v>
       </c>
       <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>37</v>
+      </c>
+      <c r="H46">
+        <v>196</v>
+      </c>
+      <c r="I46">
+        <v>25</v>
+      </c>
+      <c r="J46">
+        <v>63</v>
+      </c>
+      <c r="K46">
         <v>9</v>
       </c>
-      <c r="G46">
-        <v>494</v>
-      </c>
-      <c r="H46">
-        <v>13752</v>
-      </c>
-      <c r="I46">
-        <v>1661</v>
-      </c>
-      <c r="J46">
-        <v>3744</v>
-      </c>
-      <c r="K46">
-        <v>596</v>
-      </c>
       <c r="L46">
-        <v>1474</v>
+        <v>28</v>
       </c>
       <c r="M46">
-        <v>560</v>
+        <v>13</v>
       </c>
       <c r="N46">
-        <v>705</v>
+        <v>20</v>
       </c>
       <c r="O46">
-        <v>241</v>
+        <v>8</v>
       </c>
       <c r="P46">
-        <v>1574</v>
+        <v>26</v>
       </c>
       <c r="Q46">
-        <v>1129</v>
+        <v>19</v>
       </c>
       <c r="R46">
-        <v>439</v>
+        <v>11</v>
       </c>
       <c r="S46">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="T46">
-        <v>495</v>
+        <v>11</v>
       </c>
       <c r="U46">
-        <v>792</v>
+        <v>17</v>
       </c>
       <c r="V46">
-        <v>4478</v>
+        <v>72</v>
       </c>
       <c r="W46">
-        <v>0.444</v>
+        <v>0.397</v>
       </c>
       <c r="X46">
-        <v>0.404</v>
+        <v>0.321</v>
       </c>
       <c r="Y46">
-        <v>0.794</v>
+        <v>0.65</v>
       </c>
       <c r="Z46">
-        <v>27.8</v>
+        <v>5.3</v>
       </c>
       <c r="AA46">
-        <v>9.1</v>
+        <v>1.9</v>
       </c>
       <c r="AB46">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="AC46">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD46" t="s">
         <v>145</v>
@@ -5031,76 +5019,73 @@
         <v>22</v>
       </c>
       <c r="F47">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>506</v>
+        <v>33</v>
       </c>
       <c r="H47">
-        <v>8372</v>
+        <v>317</v>
       </c>
       <c r="I47">
-        <v>858</v>
+        <v>35</v>
       </c>
       <c r="J47">
-        <v>1738</v>
+        <v>70</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>506</v>
+        <v>19</v>
       </c>
       <c r="N47">
-        <v>714</v>
+        <v>23</v>
       </c>
       <c r="O47">
-        <v>901</v>
+        <v>34</v>
       </c>
       <c r="P47">
-        <v>2351</v>
+        <v>74</v>
       </c>
       <c r="Q47">
-        <v>220</v>
+        <v>9</v>
       </c>
       <c r="R47">
-        <v>299</v>
+        <v>8</v>
       </c>
       <c r="S47">
-        <v>352</v>
+        <v>10</v>
       </c>
       <c r="T47">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="U47">
-        <v>1178</v>
+        <v>48</v>
       </c>
       <c r="V47">
-        <v>2222</v>
+        <v>89</v>
       </c>
       <c r="W47">
-        <v>0.494</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y47">
-        <v>0.709</v>
+        <v>0.826</v>
       </c>
       <c r="Z47">
-        <v>16.5</v>
+        <v>9.6</v>
       </c>
       <c r="AA47">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="AB47">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="AC47">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD47" t="s">
         <v>145</v>
@@ -5123,76 +5108,76 @@
         <v>25</v>
       </c>
       <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>28</v>
+      </c>
+      <c r="H48">
+        <v>193</v>
+      </c>
+      <c r="I48">
+        <v>14</v>
+      </c>
+      <c r="J48">
+        <v>41</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>10</v>
+      </c>
+      <c r="N48">
+        <v>17</v>
+      </c>
+      <c r="O48">
+        <v>9</v>
+      </c>
+      <c r="P48">
+        <v>26</v>
+      </c>
+      <c r="Q48">
+        <v>7</v>
+      </c>
+      <c r="R48">
+        <v>3</v>
+      </c>
+      <c r="S48">
         <v>6</v>
       </c>
-      <c r="G48">
-        <v>153</v>
-      </c>
-      <c r="H48">
-        <v>1634</v>
-      </c>
-      <c r="I48">
-        <v>116</v>
-      </c>
-      <c r="J48">
-        <v>289</v>
-      </c>
-      <c r="K48">
+      <c r="T48">
         <v>10</v>
       </c>
-      <c r="L48">
-        <v>56</v>
-      </c>
-      <c r="M48">
-        <v>43</v>
-      </c>
-      <c r="N48">
-        <v>75</v>
-      </c>
-      <c r="O48">
-        <v>92</v>
-      </c>
-      <c r="P48">
-        <v>261</v>
-      </c>
-      <c r="Q48">
-        <v>63</v>
-      </c>
-      <c r="R48">
-        <v>32</v>
-      </c>
-      <c r="S48">
-        <v>45</v>
-      </c>
-      <c r="T48">
-        <v>47</v>
-      </c>
       <c r="U48">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="V48">
-        <v>285</v>
+        <v>39</v>
       </c>
       <c r="W48">
-        <v>0.401</v>
+        <v>0.341</v>
       </c>
       <c r="X48">
-        <v>0.179</v>
+        <v>0.333</v>
       </c>
       <c r="Y48">
-        <v>0.573</v>
+        <v>0.588</v>
       </c>
       <c r="Z48">
-        <v>10.7</v>
+        <v>6.9</v>
       </c>
       <c r="AA48">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="AB48">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="AC48">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD48" t="s">
         <v>145</v>
@@ -5215,76 +5200,76 @@
         <v>24</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H49">
-        <v>1234</v>
+        <v>1070</v>
       </c>
       <c r="I49">
+        <v>112</v>
+      </c>
+      <c r="J49">
+        <v>305</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>8</v>
+      </c>
+      <c r="M49">
+        <v>111</v>
+      </c>
+      <c r="N49">
+        <v>180</v>
+      </c>
+      <c r="O49">
+        <v>28</v>
+      </c>
+      <c r="P49">
+        <v>70</v>
+      </c>
+      <c r="Q49">
+        <v>110</v>
+      </c>
+      <c r="R49">
+        <v>62</v>
+      </c>
+      <c r="S49">
+        <v>10</v>
+      </c>
+      <c r="T49">
+        <v>97</v>
+      </c>
+      <c r="U49">
         <v>125</v>
       </c>
-      <c r="J49">
-        <v>360</v>
-      </c>
-      <c r="K49">
-        <v>3</v>
-      </c>
-      <c r="L49">
-        <v>15</v>
-      </c>
-      <c r="M49">
-        <v>127</v>
-      </c>
-      <c r="N49">
-        <v>205</v>
-      </c>
-      <c r="O49">
-        <v>38</v>
-      </c>
-      <c r="P49">
-        <v>88</v>
-      </c>
-      <c r="Q49">
-        <v>121</v>
-      </c>
-      <c r="R49">
-        <v>69</v>
-      </c>
-      <c r="S49">
-        <v>12</v>
-      </c>
-      <c r="T49">
-        <v>119</v>
-      </c>
-      <c r="U49">
-        <v>146</v>
-      </c>
       <c r="V49">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="W49">
-        <v>0.347</v>
+        <v>0.367</v>
       </c>
       <c r="X49">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Y49">
-        <v>0.62</v>
+        <v>0.617</v>
       </c>
       <c r="Z49">
-        <v>17.1</v>
+        <v>18.4</v>
       </c>
       <c r="AA49">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="AB49">
         <v>1.2</v>
       </c>
       <c r="AC49">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AD49" t="s">
         <v>145</v>
@@ -5491,76 +5476,76 @@
         <v>22</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="H52">
-        <v>1973</v>
+        <v>292</v>
       </c>
       <c r="I52">
-        <v>297</v>
+        <v>49</v>
       </c>
       <c r="J52">
-        <v>726</v>
+        <v>125</v>
       </c>
       <c r="K52">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="L52">
-        <v>250</v>
+        <v>47</v>
       </c>
       <c r="M52">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="N52">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="O52">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="P52">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="Q52">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="R52">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="S52">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="T52">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="U52">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="V52">
-        <v>729</v>
+        <v>119</v>
       </c>
       <c r="W52">
-        <v>0.409</v>
+        <v>0.392</v>
       </c>
       <c r="X52">
-        <v>0.288</v>
+        <v>0.319</v>
       </c>
       <c r="Y52">
-        <v>0.606</v>
+        <v>0.545</v>
       </c>
       <c r="Z52">
-        <v>13.9</v>
+        <v>8.6</v>
       </c>
       <c r="AA52">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="AB52">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC52">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AD52" t="s">
         <v>145</v>
@@ -5672,19 +5657,19 @@
         <v>22</v>
       </c>
       <c r="F54">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="H54">
-        <v>3303</v>
+        <v>1761</v>
       </c>
       <c r="I54">
-        <v>246</v>
+        <v>155</v>
       </c>
       <c r="J54">
-        <v>556</v>
+        <v>323</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -5693,52 +5678,52 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="N54">
+        <v>142</v>
+      </c>
+      <c r="O54">
+        <v>197</v>
+      </c>
+      <c r="P54">
+        <v>536</v>
+      </c>
+      <c r="Q54">
+        <v>61</v>
+      </c>
+      <c r="R54">
+        <v>29</v>
+      </c>
+      <c r="S54">
+        <v>195</v>
+      </c>
+      <c r="T54">
+        <v>85</v>
+      </c>
+      <c r="U54">
         <v>251</v>
       </c>
-      <c r="O54">
-        <v>349</v>
-      </c>
-      <c r="P54">
-        <v>907</v>
-      </c>
-      <c r="Q54">
-        <v>88</v>
-      </c>
-      <c r="R54">
-        <v>56</v>
-      </c>
-      <c r="S54">
-        <v>278</v>
-      </c>
-      <c r="T54">
-        <v>142</v>
-      </c>
-      <c r="U54">
-        <v>557</v>
-      </c>
       <c r="V54">
-        <v>623</v>
+        <v>375</v>
       </c>
       <c r="W54">
-        <v>0.442</v>
+        <v>0.48</v>
       </c>
       <c r="Y54">
-        <v>0.522</v>
+        <v>0.458</v>
       </c>
       <c r="Z54">
-        <v>11.5</v>
+        <v>21.7</v>
       </c>
       <c r="AA54">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
       <c r="AB54">
-        <v>3.2</v>
+        <v>6.6</v>
       </c>
       <c r="AC54">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="AD54" t="s">
         <v>145</v>
@@ -5850,76 +5835,76 @@
         <v>23</v>
       </c>
       <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>12</v>
+      </c>
+      <c r="H56">
+        <v>108</v>
+      </c>
+      <c r="I56">
+        <v>13</v>
+      </c>
+      <c r="J56">
+        <v>37</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>11</v>
+      </c>
+      <c r="N56">
+        <v>16</v>
+      </c>
+      <c r="O56">
+        <v>4</v>
+      </c>
+      <c r="P56">
+        <v>13</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
         <v>3</v>
       </c>
-      <c r="G56">
-        <v>54</v>
-      </c>
-      <c r="H56">
-        <v>866</v>
-      </c>
-      <c r="I56">
-        <v>100</v>
-      </c>
-      <c r="J56">
-        <v>249</v>
-      </c>
-      <c r="K56">
-        <v>28</v>
-      </c>
-      <c r="L56">
-        <v>71</v>
-      </c>
-      <c r="M56">
-        <v>28</v>
-      </c>
-      <c r="N56">
-        <v>39</v>
-      </c>
-      <c r="O56">
-        <v>36</v>
-      </c>
-      <c r="P56">
-        <v>120</v>
-      </c>
-      <c r="Q56">
-        <v>26</v>
-      </c>
-      <c r="R56">
-        <v>32</v>
-      </c>
       <c r="S56">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="U56">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="V56">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="W56">
-        <v>0.402</v>
+        <v>0.351</v>
       </c>
       <c r="X56">
-        <v>0.394</v>
+        <v>0.5</v>
       </c>
       <c r="Y56">
-        <v>0.718</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="Z56">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AA56">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="AB56">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="AC56">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AD56" t="s">
         <v>145</v>
@@ -5942,76 +5927,76 @@
         <v>21</v>
       </c>
       <c r="F57">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>534</v>
+        <v>71</v>
       </c>
       <c r="H57">
-        <v>13324</v>
+        <v>1513</v>
       </c>
       <c r="I57">
-        <v>2471</v>
+        <v>321</v>
       </c>
       <c r="J57">
-        <v>5298</v>
+        <v>675</v>
       </c>
       <c r="K57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="M57">
-        <v>942</v>
+        <v>173</v>
       </c>
       <c r="N57">
-        <v>1324</v>
+        <v>244</v>
       </c>
       <c r="O57">
-        <v>791</v>
+        <v>118</v>
       </c>
       <c r="P57">
-        <v>2452</v>
+        <v>296</v>
       </c>
       <c r="Q57">
-        <v>623</v>
+        <v>53</v>
       </c>
       <c r="R57">
-        <v>246</v>
+        <v>34</v>
       </c>
       <c r="S57">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="T57">
-        <v>973</v>
+        <v>107</v>
       </c>
       <c r="U57">
-        <v>1603</v>
+        <v>222</v>
       </c>
       <c r="V57">
-        <v>5889</v>
+        <v>815</v>
       </c>
       <c r="W57">
-        <v>0.466</v>
+        <v>0.476</v>
       </c>
       <c r="X57">
-        <v>0.152</v>
+        <v>0</v>
       </c>
       <c r="Y57">
-        <v>0.711</v>
+        <v>0.709</v>
       </c>
       <c r="Z57">
-        <v>25</v>
+        <v>21.3</v>
       </c>
       <c r="AA57">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AB57">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="AC57">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="AD57" t="s">
         <v>145</v>
@@ -6034,73 +6019,70 @@
         <v>22</v>
       </c>
       <c r="F58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>208</v>
+        <v>54</v>
       </c>
       <c r="H58">
-        <v>2253</v>
+        <v>535</v>
       </c>
       <c r="I58">
-        <v>223</v>
+        <v>55</v>
       </c>
       <c r="J58">
-        <v>444</v>
+        <v>113</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>41</v>
+      </c>
+      <c r="N58">
+        <v>54</v>
+      </c>
+      <c r="O58">
+        <v>48</v>
+      </c>
+      <c r="P58">
+        <v>106</v>
+      </c>
+      <c r="Q58">
+        <v>17</v>
+      </c>
+      <c r="R58">
+        <v>22</v>
+      </c>
+      <c r="S58">
+        <v>12</v>
+      </c>
+      <c r="T58">
+        <v>46</v>
+      </c>
+      <c r="U58">
+        <v>97</v>
+      </c>
+      <c r="V58">
+        <v>151</v>
+      </c>
+      <c r="W58">
+        <v>0.487</v>
+      </c>
+      <c r="Y58">
+        <v>0.759</v>
+      </c>
+      <c r="Z58">
+        <v>9.9</v>
+      </c>
+      <c r="AA58">
+        <v>2.8</v>
+      </c>
+      <c r="AB58">
         <v>2</v>
-      </c>
-      <c r="M58">
-        <v>114</v>
-      </c>
-      <c r="N58">
-        <v>193</v>
-      </c>
-      <c r="O58">
-        <v>199</v>
-      </c>
-      <c r="P58">
-        <v>432</v>
-      </c>
-      <c r="Q58">
-        <v>60</v>
-      </c>
-      <c r="R58">
-        <v>69</v>
-      </c>
-      <c r="S58">
-        <v>50</v>
-      </c>
-      <c r="T58">
-        <v>107</v>
-      </c>
-      <c r="U58">
-        <v>384</v>
-      </c>
-      <c r="V58">
-        <v>560</v>
-      </c>
-      <c r="W58">
-        <v>0.502</v>
-      </c>
-      <c r="X58">
-        <v>0</v>
-      </c>
-      <c r="Y58">
-        <v>0.591</v>
-      </c>
-      <c r="Z58">
-        <v>10.8</v>
-      </c>
-      <c r="AA58">
-        <v>2.7</v>
-      </c>
-      <c r="AB58">
-        <v>2.1</v>
       </c>
       <c r="AC58">
         <v>0.3</v>
@@ -6126,76 +6108,76 @@
         <v>20</v>
       </c>
       <c r="F59">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>824</v>
+        <v>77</v>
       </c>
       <c r="H59">
-        <v>21336</v>
+        <v>1779</v>
       </c>
       <c r="I59">
-        <v>3458</v>
+        <v>306</v>
       </c>
       <c r="J59">
-        <v>7922</v>
+        <v>684</v>
       </c>
       <c r="K59">
-        <v>962</v>
+        <v>62</v>
       </c>
       <c r="L59">
-        <v>2609</v>
+        <v>171</v>
       </c>
       <c r="M59">
-        <v>1576</v>
+        <v>171</v>
       </c>
       <c r="N59">
-        <v>2079</v>
+        <v>231</v>
       </c>
       <c r="O59">
-        <v>807</v>
+        <v>107</v>
       </c>
       <c r="P59">
-        <v>3379</v>
+        <v>288</v>
       </c>
       <c r="Q59">
-        <v>1272</v>
+        <v>90</v>
       </c>
       <c r="R59">
-        <v>609</v>
+        <v>54</v>
       </c>
       <c r="S59">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="T59">
-        <v>1217</v>
+        <v>118</v>
       </c>
       <c r="U59">
-        <v>2261</v>
+        <v>185</v>
       </c>
       <c r="V59">
-        <v>9454</v>
+        <v>845</v>
       </c>
       <c r="W59">
-        <v>0.437</v>
+        <v>0.447</v>
       </c>
       <c r="X59">
-        <v>0.369</v>
+        <v>0.363</v>
       </c>
       <c r="Y59">
-        <v>0.758</v>
+        <v>0.74</v>
       </c>
       <c r="Z59">
-        <v>25.9</v>
+        <v>23.1</v>
       </c>
       <c r="AA59">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB59">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="AC59">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AD59" t="s">
         <v>145</v>
@@ -6218,76 +6200,76 @@
         <v>22</v>
       </c>
       <c r="F60">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>575</v>
+        <v>62</v>
       </c>
       <c r="H60">
-        <v>18150</v>
+        <v>2325</v>
       </c>
       <c r="I60">
-        <v>3396</v>
+        <v>446</v>
       </c>
       <c r="J60">
-        <v>7659</v>
+        <v>1047</v>
       </c>
       <c r="K60">
-        <v>597</v>
+        <v>69</v>
       </c>
       <c r="L60">
-        <v>1655</v>
+        <v>224</v>
       </c>
       <c r="M60">
-        <v>1817</v>
+        <v>258</v>
       </c>
       <c r="N60">
-        <v>2177</v>
+        <v>305</v>
       </c>
       <c r="O60">
-        <v>1122</v>
+        <v>142</v>
       </c>
       <c r="P60">
-        <v>3909</v>
+        <v>408</v>
       </c>
       <c r="Q60">
-        <v>900</v>
+        <v>106</v>
       </c>
       <c r="R60">
-        <v>472</v>
+        <v>64</v>
       </c>
       <c r="S60">
-        <v>295</v>
+        <v>25</v>
       </c>
       <c r="T60">
-        <v>1262</v>
+        <v>164</v>
       </c>
       <c r="U60">
-        <v>1736</v>
+        <v>216</v>
       </c>
       <c r="V60">
-        <v>9206</v>
+        <v>1219</v>
       </c>
       <c r="W60">
-        <v>0.443</v>
+        <v>0.426</v>
       </c>
       <c r="X60">
-        <v>0.361</v>
+        <v>0.308</v>
       </c>
       <c r="Y60">
-        <v>0.835</v>
+        <v>0.846</v>
       </c>
       <c r="Z60">
-        <v>31.6</v>
+        <v>37.5</v>
       </c>
       <c r="AA60">
-        <v>16</v>
+        <v>19.7</v>
       </c>
       <c r="AB60">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC60">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD60" t="s">
         <v>145</v>
@@ -6310,76 +6292,76 @@
         <v>22</v>
       </c>
       <c r="F61">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>776</v>
+        <v>45</v>
       </c>
       <c r="H61">
-        <v>12658</v>
+        <v>419</v>
       </c>
       <c r="I61">
-        <v>1300</v>
+        <v>44</v>
       </c>
       <c r="J61">
-        <v>3028</v>
+        <v>122</v>
       </c>
       <c r="K61">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="L61">
-        <v>270</v>
+        <v>8</v>
       </c>
       <c r="M61">
-        <v>768</v>
+        <v>48</v>
       </c>
       <c r="N61">
-        <v>986</v>
+        <v>68</v>
       </c>
       <c r="O61">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="P61">
-        <v>1028</v>
+        <v>38</v>
       </c>
       <c r="Q61">
-        <v>1919</v>
+        <v>84</v>
       </c>
       <c r="R61">
-        <v>403</v>
+        <v>9</v>
       </c>
       <c r="S61">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T61">
-        <v>792</v>
+        <v>56</v>
       </c>
       <c r="U61">
-        <v>1267</v>
+        <v>63</v>
       </c>
       <c r="V61">
-        <v>3463</v>
+        <v>139</v>
       </c>
       <c r="W61">
-        <v>0.429</v>
+        <v>0.361</v>
       </c>
       <c r="X61">
-        <v>0.352</v>
+        <v>0.375</v>
       </c>
       <c r="Y61">
-        <v>0.779</v>
+        <v>0.706</v>
       </c>
       <c r="Z61">
-        <v>16.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AA61">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="AB61">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AC61">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="AD61" t="s">
         <v>145</v>
@@ -6402,76 +6384,76 @@
         <v>23</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="H62">
-        <v>2300</v>
+        <v>1539</v>
       </c>
       <c r="I62">
-        <v>274</v>
+        <v>201</v>
       </c>
       <c r="J62">
-        <v>682</v>
+        <v>498</v>
       </c>
       <c r="K62">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="L62">
-        <v>234</v>
+        <v>137</v>
       </c>
       <c r="M62">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="N62">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="O62">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="P62">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="Q62">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="R62">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="S62">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="T62">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="U62">
-        <v>230</v>
+        <v>143</v>
       </c>
       <c r="V62">
-        <v>716</v>
+        <v>511</v>
       </c>
       <c r="W62">
-        <v>0.402</v>
+        <v>0.404</v>
       </c>
       <c r="X62">
-        <v>0.346</v>
+        <v>0.321</v>
       </c>
       <c r="Y62">
-        <v>0.757</v>
+        <v>0.783</v>
       </c>
       <c r="Z62">
-        <v>22.1</v>
+        <v>23.3</v>
       </c>
       <c r="AA62">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="AB62">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AC62">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AD62" t="s">
         <v>145</v>
@@ -6586,76 +6568,76 @@
         <v>24</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>740</v>
+        <v>150</v>
       </c>
       <c r="I64">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J64">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="K64">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="L64">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="M64">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="N64">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="O64">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="P64">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q64">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="R64">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="S64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T64">
+        <v>9</v>
+      </c>
+      <c r="U64">
+        <v>12</v>
+      </c>
+      <c r="V64">
         <v>57</v>
       </c>
-      <c r="U64">
-        <v>71</v>
-      </c>
-      <c r="V64">
-        <v>265</v>
-      </c>
       <c r="W64">
-        <v>0.383</v>
+        <v>0.4</v>
       </c>
       <c r="X64">
-        <v>0.39</v>
+        <v>0.471</v>
       </c>
       <c r="Y64">
+        <v>0.6</v>
+      </c>
+      <c r="Z64">
+        <v>4.4</v>
+      </c>
+      <c r="AA64">
+        <v>1.7</v>
+      </c>
+      <c r="AB64">
+        <v>0.3</v>
+      </c>
+      <c r="AC64">
         <v>0.7</v>
-      </c>
-      <c r="Z64">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AA64">
-        <v>3.3</v>
-      </c>
-      <c r="AB64">
-        <v>0.7</v>
-      </c>
-      <c r="AC64">
-        <v>1.6</v>
       </c>
       <c r="AD64" t="s">
         <v>145</v>
@@ -6678,76 +6660,76 @@
         <v>23</v>
       </c>
       <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>54</v>
+      </c>
+      <c r="H65">
+        <v>1071</v>
+      </c>
+      <c r="I65">
+        <v>125</v>
+      </c>
+      <c r="J65">
+        <v>282</v>
+      </c>
+      <c r="K65">
         <v>9</v>
       </c>
-      <c r="G65">
-        <v>460</v>
-      </c>
-      <c r="H65">
-        <v>12610</v>
-      </c>
-      <c r="I65">
-        <v>1664</v>
-      </c>
-      <c r="J65">
-        <v>3950</v>
-      </c>
-      <c r="K65">
-        <v>208</v>
-      </c>
       <c r="L65">
-        <v>664</v>
+        <v>28</v>
       </c>
       <c r="M65">
-        <v>625</v>
+        <v>65</v>
       </c>
       <c r="N65">
-        <v>822</v>
+        <v>90</v>
       </c>
       <c r="O65">
-        <v>252</v>
+        <v>24</v>
       </c>
       <c r="P65">
-        <v>1140</v>
+        <v>81</v>
       </c>
       <c r="Q65">
-        <v>1877</v>
+        <v>103</v>
       </c>
       <c r="R65">
-        <v>549</v>
+        <v>38</v>
       </c>
       <c r="S65">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="T65">
-        <v>623</v>
+        <v>58</v>
       </c>
       <c r="U65">
-        <v>897</v>
+        <v>79</v>
       </c>
       <c r="V65">
-        <v>4161</v>
+        <v>324</v>
       </c>
       <c r="W65">
-        <v>0.421</v>
+        <v>0.443</v>
       </c>
       <c r="X65">
-        <v>0.313</v>
+        <v>0.321</v>
       </c>
       <c r="Y65">
-        <v>0.76</v>
+        <v>0.722</v>
       </c>
       <c r="Z65">
-        <v>27.4</v>
+        <v>19.8</v>
       </c>
       <c r="AA65">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AB65">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AC65">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="AD65" t="s">
         <v>145</v>
@@ -6770,76 +6752,76 @@
         <v>22</v>
       </c>
       <c r="F66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H66">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="I66">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J66">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K66">
         <v>3</v>
       </c>
       <c r="L66">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
         <v>4</v>
       </c>
-      <c r="N66">
-        <v>8</v>
-      </c>
       <c r="O66">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P66">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q66">
         <v>3</v>
       </c>
       <c r="R66">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S66">
         <v>3</v>
       </c>
       <c r="T66">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U66">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="V66">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="W66">
-        <v>0.298</v>
+        <v>0.32</v>
       </c>
       <c r="X66">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="Y66">
         <v>0.5</v>
       </c>
       <c r="Z66">
-        <v>9.1</v>
+        <v>15.6</v>
       </c>
       <c r="AA66">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="AB66">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="AC66">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD66" t="s">
         <v>145</v>
@@ -6862,19 +6844,19 @@
         <v>28</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H67">
-        <v>427</v>
+        <v>365</v>
       </c>
       <c r="I67">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J67">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -6883,49 +6865,49 @@
         <v>1</v>
       </c>
       <c r="M67">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N67">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O67">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P67">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="Q67">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R67">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T67">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U67">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="V67">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="W67">
-        <v>0.47</v>
+        <v>0.471</v>
       </c>
       <c r="X67">
         <v>0</v>
       </c>
       <c r="Y67">
-        <v>0.54</v>
+        <v>0.522</v>
       </c>
       <c r="Z67">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="AA67">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AB67">
         <v>2.4</v>
